--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>26.42490667533911</v>
+        <v>25.88822732163966</v>
       </c>
       <c r="R2">
-        <v>237.824160078052</v>
+        <v>232.994045894757</v>
       </c>
       <c r="S2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="T2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>48.95733485634366</v>
+        <v>48.95733485634367</v>
       </c>
       <c r="R3">
-        <v>440.616013707093</v>
+        <v>440.6160137070931</v>
       </c>
       <c r="S3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="T3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>23.85394140104211</v>
+        <v>12.92395862326989</v>
       </c>
       <c r="R4">
-        <v>214.685472609379</v>
+        <v>116.315627609429</v>
       </c>
       <c r="S4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="T4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
     </row>
   </sheetData>
